--- a/biology/Histoire de la zoologie et de la botanique/Hans_Kniep/Hans_Kniep.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hans_Kniep/Hans_Kniep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hans (ou Karl Johannes) Kniep est un botaniste allemand, né le 3 avril 1881 à Iéna et mort le 17 novembre 1930 à Berlin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à l’université de Kiel et la botanique à Iéna sous la direction de Christian Ernest Stahl (1848-1919). Il obtient son doctorat en 1904. Kniep complète sa formation à l’université de Genève sous la direction de Robert Hippolyte Chodat (1865-1934).
 En 1905, il travaille aux côtés de Wilhelm Friedrich Philipp Pfeffer (1845-1920) à l’université de Leipzig comme assistant et fait un long séjour à Bergen (en Norvège) où il étudie la physiologie et la biologie du développement des algues. En 1907, il devient privatdozent à l’université de Fribourg.
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(1913) "Beiträge zur Kenntnis der Hymenomyceten: II. Über die Herkunft der Kernpaare im Fruchtkörper von Coprinus nycthemerus Fr." in Zeitschrift für Botanik 5 p. 593-637
 (1913) "Beiträge zur Kenntnis der Hymenomyceten: I. Die Entwicklungsgeschichte von Hypochnus terrestris nov. spec." in Zeitschrift für Botanik 5 p. 593-637
@@ -584,7 +600,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Hans Kniep » (voir la liste des auteurs) (version du 19 avril 2006).</t>
         </is>
